--- a/biology/Médecine/Charles_Osborne_(cas_médical)/Charles_Osborne_(cas_médical).xlsx
+++ b/biology/Médecine/Charles_Osborne_(cas_médical)/Charles_Osborne_(cas_médical).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Osborne_(cas_m%C3%A9dical)</t>
+          <t>Charles_Osborne_(cas_médical)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Osborne (né à Anthon, Iowa, le 18 décembre 1894 et mort à Sioux City, le 1er mai 1991), apparaît dans le Livre Guinness des records en tant qu'homme atteint de la plus longue attaque de hoquet[1]. Il hoqueta continuellement pendant 68 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Osborne (né à Anthon, Iowa, le 18 décembre 1894 et mort à Sioux City, le 1er mai 1991), apparaît dans le Livre Guinness des records en tant qu'homme atteint de la plus longue attaque de hoquet. Il hoqueta continuellement pendant 68 ans.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Osborne_(cas_m%C3%A9dical)</t>
+          <t>Charles_Osborne_(cas_médical)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'attaque de hoquet commença en 1922, à un rythme de 40 par minute (le taux normal est d'environ 6 par minute), se réduisant à 20, pour finir par s'arrêter en février 1990, au bout de 68 ans[2]. Son état lui a permis d'être invité aux émissions radios ou télévisées Ripley's Believe It or Not![1] en 1936, That's Incredible et The Tonight Show[3].
-Osborne a commencé à hoqueter en 1922[4], pendant qu'il abattait un porc[1]. En dépit de sa condition, il fut capable de vivre une vie normale. Il se maria deux fois et eut huit enfants[1].
-Osborne, mort de complications d'un ulcère au Marian Health Center dans la ville de Sioux City en Iowa, États-Unis d'Amérique, le 1er mai 1991[5], fut enterré au cimetière d'Oak Hill, à Anthon, Iowa, trois jours après.
-Il est estimé qu'Osborne aurait hoqueté à peu près 420 millions de fois durant une période de 68 ans[1].
-D'après People magazine, il a reçu plus de 4 000 lettres lui proposant des remèdes, mais aucun n'a fonctionné[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'attaque de hoquet commença en 1922, à un rythme de 40 par minute (le taux normal est d'environ 6 par minute), se réduisant à 20, pour finir par s'arrêter en février 1990, au bout de 68 ans. Son état lui a permis d'être invité aux émissions radios ou télévisées Ripley's Believe It or Not! en 1936, That's Incredible et The Tonight Show.
+Osborne a commencé à hoqueter en 1922, pendant qu'il abattait un porc. En dépit de sa condition, il fut capable de vivre une vie normale. Il se maria deux fois et eut huit enfants.
+Osborne, mort de complications d'un ulcère au Marian Health Center dans la ville de Sioux City en Iowa, États-Unis d'Amérique, le 1er mai 1991, fut enterré au cimetière d'Oak Hill, à Anthon, Iowa, trois jours après.
+Il est estimé qu'Osborne aurait hoqueté à peu près 420 millions de fois durant une période de 68 ans.
+D'après People magazine, il a reçu plus de 4 000 lettres lui proposant des remèdes, mais aucun n'a fonctionné.
 </t>
         </is>
       </c>
